--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.858412</v>
+        <v>12.788523</v>
       </c>
       <c r="H2">
-        <v>38.575236</v>
+        <v>38.365569</v>
       </c>
       <c r="I2">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004661</v>
       </c>
       <c r="J2">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004659</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N2">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O2">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P2">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q2">
-        <v>298.1412440915627</v>
+        <v>279.4686758806139</v>
       </c>
       <c r="R2">
-        <v>2683.271196824064</v>
+        <v>2515.218082925526</v>
       </c>
       <c r="S2">
-        <v>0.04616759135282118</v>
+        <v>0.04027486101904972</v>
       </c>
       <c r="T2">
-        <v>0.04616759135282116</v>
+        <v>0.04027486101904971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.858412</v>
+        <v>12.788523</v>
       </c>
       <c r="H3">
-        <v>38.575236</v>
+        <v>38.365569</v>
       </c>
       <c r="I3">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004661</v>
       </c>
       <c r="J3">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004659</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q3">
-        <v>92.68973860401734</v>
+        <v>92.185944423111</v>
       </c>
       <c r="R3">
-        <v>834.207647436156</v>
+        <v>829.6734998079991</v>
       </c>
       <c r="S3">
-        <v>0.01435313650584981</v>
+        <v>0.01328512430901807</v>
       </c>
       <c r="T3">
-        <v>0.0143531365058498</v>
+        <v>0.01328512430901807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.858412</v>
+        <v>12.788523</v>
       </c>
       <c r="H4">
-        <v>38.575236</v>
+        <v>38.365569</v>
       </c>
       <c r="I4">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004661</v>
       </c>
       <c r="J4">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004659</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N4">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O4">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P4">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q4">
-        <v>74.76131904447733</v>
+        <v>145.474641265338</v>
       </c>
       <c r="R4">
-        <v>672.8518714002959</v>
+        <v>1309.271771388042</v>
       </c>
       <c r="S4">
-        <v>0.01157689549850843</v>
+        <v>0.02096467856476513</v>
       </c>
       <c r="T4">
-        <v>0.01157689549850843</v>
+        <v>0.02096467856476513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.858412</v>
+        <v>12.788523</v>
       </c>
       <c r="H5">
-        <v>38.575236</v>
+        <v>38.365569</v>
       </c>
       <c r="I5">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004661</v>
       </c>
       <c r="J5">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004659</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N5">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O5">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P5">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q5">
-        <v>43.22807381288666</v>
+        <v>43.498123346502</v>
       </c>
       <c r="R5">
-        <v>389.0526643159799</v>
+        <v>391.483110118518</v>
       </c>
       <c r="S5">
-        <v>0.006693928083797852</v>
+        <v>0.006268612633775938</v>
       </c>
       <c r="T5">
-        <v>0.00669392808379785</v>
+        <v>0.006268612633775937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.858412</v>
+        <v>12.788523</v>
       </c>
       <c r="H6">
-        <v>38.575236</v>
+        <v>38.365569</v>
       </c>
       <c r="I6">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004661</v>
       </c>
       <c r="J6">
-        <v>0.09411515985911666</v>
+        <v>0.09894253826004659</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N6">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q6">
-        <v>98.95685574848267</v>
+        <v>125.938364938254</v>
       </c>
       <c r="R6">
-        <v>890.611701736344</v>
+        <v>1133.445284444286</v>
       </c>
       <c r="S6">
-        <v>0.01532360841813939</v>
+        <v>0.01814926173343774</v>
       </c>
       <c r="T6">
-        <v>0.01532360841813939</v>
+        <v>0.01814926173343774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>51.682283</v>
       </c>
       <c r="I7">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638913</v>
       </c>
       <c r="J7">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N7">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O7">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P7">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q7">
-        <v>399.4433151649991</v>
+        <v>376.4724353885424</v>
       </c>
       <c r="R7">
-        <v>3594.989836484992</v>
+        <v>3388.251918496881</v>
       </c>
       <c r="S7">
-        <v>0.0618543596654822</v>
+        <v>0.05425429152301105</v>
       </c>
       <c r="T7">
-        <v>0.06185435966548219</v>
+        <v>0.05425429152301103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>51.682283</v>
       </c>
       <c r="I8">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638913</v>
       </c>
       <c r="J8">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638912</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q8">
         <v>124.1837458033659</v>
@@ -948,10 +948,10 @@
         <v>1117.653712230293</v>
       </c>
       <c r="S8">
-        <v>0.01923002785603077</v>
+        <v>0.0178963996136445</v>
       </c>
       <c r="T8">
-        <v>0.01923002785603076</v>
+        <v>0.01789639961364449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>51.682283</v>
       </c>
       <c r="I9">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638913</v>
       </c>
       <c r="J9">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638912</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N9">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O9">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P9">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q9">
-        <v>100.1636295448709</v>
+        <v>195.968984043966</v>
       </c>
       <c r="R9">
-        <v>901.4726659038379</v>
+        <v>1763.720856395694</v>
       </c>
       <c r="S9">
-        <v>0.0155104790393334</v>
+        <v>0.02824153215577815</v>
       </c>
       <c r="T9">
-        <v>0.01551047903933339</v>
+        <v>0.02824153215577814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>51.682283</v>
       </c>
       <c r="I10">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638913</v>
       </c>
       <c r="J10">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638912</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N10">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O10">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P10">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q10">
-        <v>57.91605641356278</v>
+        <v>58.59635030469178</v>
       </c>
       <c r="R10">
-        <v>521.2445077220649</v>
+        <v>527.367152742226</v>
       </c>
       <c r="S10">
-        <v>0.008968382866367643</v>
+        <v>0.008444452163766512</v>
       </c>
       <c r="T10">
-        <v>0.008968382866367641</v>
+        <v>0.008444452163766509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>51.682283</v>
       </c>
       <c r="I11">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638913</v>
       </c>
       <c r="J11">
-        <v>0.1260934949673181</v>
+        <v>0.1332855577638912</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N11">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q11">
-        <v>132.5802964260091</v>
+        <v>169.6516534733558</v>
       </c>
       <c r="R11">
-        <v>1193.222667834082</v>
+        <v>1526.864881260202</v>
       </c>
       <c r="S11">
-        <v>0.02053024554010408</v>
+        <v>0.02444888230769105</v>
       </c>
       <c r="T11">
-        <v>0.02053024554010408</v>
+        <v>0.02444888230769104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>48.72176233333334</v>
+        <v>53.92730466666666</v>
       </c>
       <c r="H12">
-        <v>146.165287</v>
+        <v>161.781914</v>
       </c>
       <c r="I12">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485798</v>
       </c>
       <c r="J12">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485797</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N12">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O12">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P12">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q12">
-        <v>1129.685908057188</v>
+        <v>1178.477954725795</v>
       </c>
       <c r="R12">
-        <v>10167.17317251469</v>
+        <v>10606.30159253216</v>
       </c>
       <c r="S12">
-        <v>0.1749334531662704</v>
+        <v>0.1698331152535716</v>
       </c>
       <c r="T12">
-        <v>0.1749334531662703</v>
+        <v>0.1698331152535715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>48.72176233333334</v>
+        <v>53.92730466666666</v>
       </c>
       <c r="H13">
-        <v>146.165287</v>
+        <v>161.781914</v>
       </c>
       <c r="I13">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485798</v>
       </c>
       <c r="J13">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485797</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q13">
-        <v>351.2103528027975</v>
+        <v>388.7344543923882</v>
       </c>
       <c r="R13">
-        <v>3160.893175225177</v>
+        <v>3498.610089531494</v>
       </c>
       <c r="S13">
-        <v>0.05438541754424301</v>
+        <v>0.05602139872970138</v>
       </c>
       <c r="T13">
-        <v>0.05438541754424298</v>
+        <v>0.05602139872970137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.72176233333334</v>
+        <v>53.92730466666666</v>
       </c>
       <c r="H14">
-        <v>146.165287</v>
+        <v>161.781914</v>
       </c>
       <c r="I14">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485798</v>
       </c>
       <c r="J14">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485797</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N14">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O14">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P14">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q14">
-        <v>283.2778431902424</v>
+        <v>613.444985069028</v>
       </c>
       <c r="R14">
-        <v>2549.500588712182</v>
+        <v>5521.004865621252</v>
       </c>
       <c r="S14">
-        <v>0.04386597279945335</v>
+        <v>0.08840493997632294</v>
       </c>
       <c r="T14">
-        <v>0.04386597279945333</v>
+        <v>0.08840493997632291</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.72176233333334</v>
+        <v>53.92730466666666</v>
       </c>
       <c r="H15">
-        <v>146.165287</v>
+        <v>161.781914</v>
       </c>
       <c r="I15">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485798</v>
       </c>
       <c r="J15">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485797</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N15">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O15">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P15">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q15">
-        <v>163.7953379032539</v>
+        <v>183.4251344064564</v>
       </c>
       <c r="R15">
-        <v>1474.158041129285</v>
+        <v>1650.826209658108</v>
       </c>
       <c r="S15">
-        <v>0.02536393865550617</v>
+        <v>0.02643380970100697</v>
       </c>
       <c r="T15">
-        <v>0.02536393865550616</v>
+        <v>0.02643380970100696</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.72176233333334</v>
+        <v>53.92730466666666</v>
       </c>
       <c r="H16">
-        <v>146.165287</v>
+        <v>161.781914</v>
       </c>
       <c r="I16">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485798</v>
       </c>
       <c r="J16">
-        <v>0.3566114113173194</v>
+        <v>0.4172260084485797</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N16">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q16">
-        <v>374.9570636740776</v>
+        <v>531.0634054649685</v>
       </c>
       <c r="R16">
-        <v>3374.613573066698</v>
+        <v>4779.570649184716</v>
       </c>
       <c r="S16">
-        <v>0.05806262915184655</v>
+        <v>0.07653274478797684</v>
       </c>
       <c r="T16">
-        <v>0.05806262915184653</v>
+        <v>0.07653274478797682</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.886712</v>
+        <v>3.523547333333334</v>
       </c>
       <c r="H17">
-        <v>14.660136</v>
+        <v>10.570642</v>
       </c>
       <c r="I17">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="J17">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N17">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O17">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P17">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q17">
-        <v>113.305623991296</v>
+        <v>77.00037820234088</v>
       </c>
       <c r="R17">
-        <v>1019.750615921664</v>
+        <v>693.003403821068</v>
       </c>
       <c r="S17">
-        <v>0.01754553537986864</v>
+        <v>0.011096698120967</v>
       </c>
       <c r="T17">
-        <v>0.01754553537986864</v>
+        <v>0.011096698120967</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.886712</v>
+        <v>3.523547333333334</v>
       </c>
       <c r="H18">
-        <v>14.660136</v>
+        <v>10.570642</v>
       </c>
       <c r="I18">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="J18">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>21.625471</v>
       </c>
       <c r="O18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q18">
-        <v>35.225816213784</v>
+        <v>25.39945689137578</v>
       </c>
       <c r="R18">
-        <v>317.032345924056</v>
+        <v>228.595112022382</v>
       </c>
       <c r="S18">
-        <v>0.005454767229481706</v>
+        <v>0.003660373002577582</v>
       </c>
       <c r="T18">
-        <v>0.005454767229481705</v>
+        <v>0.003660373002577581</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.886712</v>
+        <v>3.523547333333334</v>
       </c>
       <c r="H19">
-        <v>14.660136</v>
+        <v>10.570642</v>
       </c>
       <c r="I19">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="J19">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N19">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O19">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P19">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q19">
-        <v>28.412298105744</v>
+        <v>40.081781476884</v>
       </c>
       <c r="R19">
-        <v>255.710682951696</v>
+        <v>360.7360332919561</v>
       </c>
       <c r="S19">
-        <v>0.004399684358792295</v>
+        <v>0.005776275903876365</v>
       </c>
       <c r="T19">
-        <v>0.004399684358792295</v>
+        <v>0.005776275903876363</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.886712</v>
+        <v>3.523547333333334</v>
       </c>
       <c r="H20">
-        <v>14.660136</v>
+        <v>10.570642</v>
       </c>
       <c r="I20">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="J20">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N20">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O20">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P20">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q20">
-        <v>16.42840088172</v>
+        <v>11.98478483579156</v>
       </c>
       <c r="R20">
-        <v>147.85560793548</v>
+        <v>107.863063522124</v>
       </c>
       <c r="S20">
-        <v>0.002543961003445213</v>
+        <v>0.001727154365632438</v>
       </c>
       <c r="T20">
-        <v>0.002543961003445213</v>
+        <v>0.001727154365632438</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.886712</v>
+        <v>3.523547333333334</v>
       </c>
       <c r="H21">
-        <v>14.660136</v>
+        <v>10.570642</v>
       </c>
       <c r="I21">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="J21">
-        <v>0.03576753342990283</v>
+        <v>0.0272610618786406</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N21">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O21">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P21">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q21">
-        <v>37.607571951216</v>
+        <v>34.69906493052756</v>
       </c>
       <c r="R21">
-        <v>338.468147560944</v>
+        <v>312.291584374748</v>
       </c>
       <c r="S21">
-        <v>0.005823585458314976</v>
+        <v>0.005000560485587216</v>
       </c>
       <c r="T21">
-        <v>0.005823585458314975</v>
+        <v>0.005000560485587215</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.929924</v>
+        <v>41.78521799999999</v>
       </c>
       <c r="H22">
-        <v>158.789772</v>
+        <v>125.355654</v>
       </c>
       <c r="I22">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="J22">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N22">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O22">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P22">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q22">
-        <v>1227.258341934592</v>
+        <v>913.1359067691237</v>
       </c>
       <c r="R22">
-        <v>11045.32507741133</v>
+        <v>8218.223160922114</v>
       </c>
       <c r="S22">
-        <v>0.1900426819087677</v>
+        <v>0.1315940744369537</v>
       </c>
       <c r="T22">
-        <v>0.1900426819087677</v>
+        <v>0.1315940744369536</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.929924</v>
+        <v>41.78521799999999</v>
       </c>
       <c r="H23">
-        <v>158.789772</v>
+        <v>125.355654</v>
       </c>
       <c r="I23">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="J23">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>21.625471</v>
       </c>
       <c r="O23">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P23">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q23">
-        <v>381.544845498068</v>
+        <v>301.208340029226</v>
       </c>
       <c r="R23">
-        <v>3433.903609482612</v>
+        <v>2710.875060263034</v>
       </c>
       <c r="S23">
-        <v>0.05908275644117297</v>
+        <v>0.04340781303747269</v>
       </c>
       <c r="T23">
-        <v>0.05908275644117295</v>
+        <v>0.04340781303747267</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.929924</v>
+        <v>41.78521799999999</v>
       </c>
       <c r="H24">
-        <v>158.789772</v>
+        <v>125.355654</v>
       </c>
       <c r="I24">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="J24">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N24">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O24">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P24">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q24">
-        <v>307.744917114488</v>
+        <v>475.3238195485079</v>
       </c>
       <c r="R24">
-        <v>2769.704254030392</v>
+        <v>4277.914375936572</v>
       </c>
       <c r="S24">
-        <v>0.0476547336398922</v>
+        <v>0.06849998738154814</v>
       </c>
       <c r="T24">
-        <v>0.04765473363989219</v>
+        <v>0.06849998738154811</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.929924</v>
+        <v>41.78521799999999</v>
       </c>
       <c r="H25">
-        <v>158.789772</v>
+        <v>125.355654</v>
       </c>
       <c r="I25">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="J25">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N25">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O25">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P25">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q25">
-        <v>177.94255321594</v>
+        <v>142.125761248932</v>
       </c>
       <c r="R25">
-        <v>1601.48297894346</v>
+        <v>1279.131851240388</v>
       </c>
       <c r="S25">
-        <v>0.02755465486227117</v>
+        <v>0.02048206391464297</v>
       </c>
       <c r="T25">
-        <v>0.02755465486227116</v>
+        <v>0.02048206391464297</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.929924</v>
+        <v>41.78521799999999</v>
       </c>
       <c r="H26">
-        <v>158.789772</v>
+        <v>125.355654</v>
       </c>
       <c r="I26">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="J26">
-        <v>0.3874124004263431</v>
+        <v>0.3232848336488418</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N26">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O26">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P26">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q26">
-        <v>407.342590519432</v>
+        <v>411.4909934093639</v>
       </c>
       <c r="R26">
-        <v>3666.083314674888</v>
+        <v>3703.418940684276</v>
       </c>
       <c r="S26">
-        <v>0.06307757357423904</v>
+        <v>0.05930089487822431</v>
       </c>
       <c r="T26">
-        <v>0.06307757357423903</v>
+        <v>0.05930089487822431</v>
       </c>
     </row>
   </sheetData>
